--- a/src/main/resources/excelsheets/usZip/GetInfoByState/USState.xlsx
+++ b/src/main/resources/excelsheets/usZip/GetInfoByState/USState.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Main</t>
   </si>
@@ -30,7 +30,34 @@
     <t>Value</t>
   </si>
   <si>
-    <t>/Envelope/Body/GetInfoByState/USState</t>
+    <t>[A-Z a-z].*</t>
+  </si>
+  <si>
+    <t>[A-Z]{2}</t>
+  </si>
+  <si>
+    <t>[0-9]{5}</t>
+  </si>
+  <si>
+    <t>[0-9]{3}</t>
+  </si>
+  <si>
+    <t>[A-Z]{1}</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByStateResponse/GetInfoByStateResult/NewDataSet/Table[1]/CITY</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByStateResponse/GetInfoByStateResult/NewDataSet/Table[1]/STATE</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByStateResponse/GetInfoByStateResult/NewDataSet/Table[1]/ZIP</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByStateResponse/GetInfoByStateResult/NewDataSet/Table[1]/AREA_CODE</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByStateResponse/GetInfoByStateResult/NewDataSet/Table[1]/TIME_ZONE</t>
   </si>
 </sst>
 </file>
@@ -348,15 +375,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -372,7 +400,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excelsheets/usZip/GetInfoByState/USState.xlsx
+++ b/src/main/resources/excelsheets/usZip/GetInfoByState/USState.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Main</t>
   </si>
@@ -58,6 +58,21 @@
   </si>
   <si>
     <t>/Envelope/Body/GetInfoByStateResponse/GetInfoByStateResult/NewDataSet/Table[1]/TIME_ZONE</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByStateResponse/GetInfoByStateResult/NewDataSet/Table[2]/CITY</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByStateResponse/GetInfoByStateResult/NewDataSet/Table[2]/STATE</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByStateResponse/GetInfoByStateResult/NewDataSet/Table[2]/ZIP</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByStateResponse/GetInfoByStateResult/NewDataSet/Table[2]/AREA_CODE</t>
+  </si>
+  <si>
+    <t>/Envelope/Body/GetInfoByStateResponse/GetInfoByStateResult/NewDataSet/Table[2]/TIME_ZONE</t>
   </si>
 </sst>
 </file>
@@ -375,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +453,46 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
